--- a/biology/Microbiologie/Oceanospirillales/Oceanospirillales.xlsx
+++ b/biology/Microbiologie/Oceanospirillales/Oceanospirillales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Oceanospirillales sont un ordre de bactéries à Gram négatif de la classe des Gammaproteobacteria. Son nom provient du genre Oceanospirillum qui est le genre type de l'ordre.
 </t>
@@ -511,10 +523,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est dans le Bergey's Manual of Systematic Bacteriology que Garrity propose en 2005 le nom de Oceanospirillales pour représenter ce nouvel ordre bactérien[1]. Le nom est validé par l'ICSP et publié en novembre 2005 dans une publication de l'IJSEM[2].
-En 2020, Liao et al. propose la création de l'ordre Kangiellales en séparant la famille Kangiellaceae de l'ordre Oceanospirillales[3]. Bien que publié de manière valide selon les règles de l'ICSP, cette proposition n'est pour le moment pas encore retenu et l'ordre est considéré comme un synonyme hétérotypique[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est dans le Bergey's Manual of Systematic Bacteriology que Garrity propose en 2005 le nom de Oceanospirillales pour représenter ce nouvel ordre bactérien. Le nom est validé par l'ICSP et publié en novembre 2005 dans une publication de l'IJSEM.
+En 2020, Liao et al. propose la création de l'ordre Kangiellales en séparant la famille Kangiellaceae de l'ordre Oceanospirillales. Bien que publié de manière valide selon les règles de l'ICSP, cette proposition n'est pour le moment pas encore retenu et l'ordre est considéré comme un synonyme hétérotypique.
 </t>
         </is>
       </c>
@@ -545,8 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Étymologie
-L'étymologie de l'ordre Oceanospirillales est la suivante : N.L. neut. dim. n. Oceanospirillum, genre type de l'ordre; L. fem. pl. n. suff. -ales, suffixe pour définir un ordre; N.L. fem. pl. n. Oceanospirillales, l'ordre des Oceanospirillum[1],[5].
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie de l'ordre Oceanospirillales est la suivante : N.L. neut. dim. n. Oceanospirillum, genre type de l'ordre; L. fem. pl. n. suff. -ales, suffixe pour définir un ordre; N.L. fem. pl. n. Oceanospirillales, l'ordre des Oceanospirillum,.
 </t>
         </is>
       </c>
@@ -575,9 +594,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon LPSN  (8 novembre 2022)[6] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon LPSN  (8 novembre 2022) :
 Aestuariirhabdaceae Khan et al. 2020
 Alcanivoracaceae corrig. Golyshin et al. 2005
 Balneatricaceae corrig. Krishnan et al. 2019
